--- a/data/trans_camb/P25A_11_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_11_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 0,0</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,93</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,98</t>
+          <t>-6,22; 15,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,65</t>
+          <t>-4,3; 11,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,97</t>
+          <t>-4,58; 7,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,54</t>
+          <t>-4,15; 12,42</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 3,7</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 1,25</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 8,54</t>
         </is>
       </c>
     </row>
@@ -682,27 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>131,53%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>104,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>120,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-8,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-54,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71,53%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,87</t>
+          <t>-8,43; 9,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,4</t>
+          <t>-7,07; 10,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,15</t>
+          <t>-11,31; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,16</t>
+          <t>1,45; 13,37</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 6,99</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 5,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 5,59</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>38,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-55,45%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>164,53%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>65,45%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 7,51</t>
+          <t>-7,17; 3,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,75</t>
+          <t>-4,8; 8,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,97</t>
+          <t>-5,99; 6,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 2,26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 4,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 3,04</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-48,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>-24,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>-8,49%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-25,75%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34,31%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-16,06%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,29; 184,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 238,36</t>
+          <t>-86,16; 284,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,08; 164,79</t>
+          <t>-66,43; 497,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 217,35</t>
+          <t>-80,87; 486,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-88,08; 253,91</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-68,16; 347,48</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-88,01; 301,89</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,02</t>
+          <t>-3,58; 7,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 7,92</t>
+          <t>-2,39; 9,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,85</t>
+          <t>-3,26; 9,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 5,52</t>
+          <t>-7,78; 7,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,34</t>
+          <t>-7,9; 8,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 5,38</t>
+          <t>-2,73; 15,35</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 5,81</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 6,31</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 9,1</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>129,71%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>149,32%</t>
+          <t>106,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>62,46%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20,13%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>65,19%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 1190,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 1299,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,87; 155,42</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,31; 130,05</t>
+          <t>-66,72; 171,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 168,67</t>
+          <t>-63,72; 166,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 177,83</t>
+          <t>-30,37; 286,76</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-54,37; 165,95</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-47,38; 183,51</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-25,81; 266,04</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,54</t>
+          <t>-12,96; 1,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 3,76</t>
+          <t>-10,11; 6,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 8,41</t>
+          <t>-10,08; 6,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 11,48</t>
+          <t>-6,93; 11,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,63</t>
+          <t>-4,4; 17,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,44</t>
+          <t>-3,66; 17,49</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 2,96</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 7,83</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 8,72</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>-65,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>-22,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>-20,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>60,95%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>113,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>123,35%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-28,34%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36,2%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,95; 228,94</t>
+          <t>-85,49; 305,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 276,68</t>
+          <t>-87,63; 238,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-41,91; 331,27</t>
+          <t>-95,85; 784,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-60,06; 110,88</t>
+          <t>-68,97; 881,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 206,74</t>
+          <t>-55,33; 969,25</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-77,91; 113,92</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-50,82; 232,59</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-43,25; 231,97</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 10,98</t>
+          <t>-6,59; 10,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,63</t>
+          <t>-9,73; 6,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 4,22</t>
+          <t>-12,47; 5,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 15,21</t>
+          <t>-4,73; 10,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,73</t>
+          <t>-3,09; 13,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 8,69</t>
+          <t>-2,16; 20,9</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 6,92</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 9,32</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 12,1</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>245,28%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-38,18%</t>
+          <t>-22,07%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>180,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>277,63%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>85,34%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>134,26%</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-87,62; 516,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 310,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-79,75; 403,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,59</t>
+          <t>-3,61; 1,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,98</t>
+          <t>-2,79; 2,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,6</t>
+          <t>-2,97; 2,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,59</t>
+          <t>-2,12; 4,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,82</t>
+          <t>-1,26; 4,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,43</t>
+          <t>0,44; 7,94</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 2,06</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 3,02</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 4,18</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>-26,42%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>-6,93%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>92,12%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>50,28%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 123,4</t>
+          <t>-76,99; 89,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 140,78</t>
+          <t>-63,32; 130,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 110,59</t>
+          <t>-64,04; 140,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 132,14</t>
+          <t>-37,98; 128,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 66,92</t>
+          <t>-23,35; 163,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 91,95</t>
+          <t>5,0; 268,62</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 75,65</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 102,61</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 140,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
